--- a/data/structure.xlsx
+++ b/data/structure.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t xml:space="preserve">Instanzname</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">MSS</t>
   </si>
   <si>
-    <t xml:space="preserve">Length</t>
-  </si>
-  <si>
     <t xml:space="preserve">O_Forward</t>
   </si>
   <si>
@@ -64,7 +61,7 @@
     <t xml:space="preserve">FB_Std</t>
   </si>
   <si>
-    <t xml:space="preserve">Förderband 1 </t>
+    <t xml:space="preserve">Foerderband 1 </t>
   </si>
   <si>
     <t xml:space="preserve"> =HV1+M1</t>
@@ -73,220 +70,67 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">_15A1.DI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.0</t>
+    <t xml:space="preserve">"O_10_0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O_11_0"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"DB_FB_Std".FB1</t>
   </si>
   <si>
     <t xml:space="preserve">FB2</t>
   </si>
   <si>
-    <t xml:space="preserve">Förderband 2</t>
+    <t xml:space="preserve">Foerderband 2</t>
   </si>
   <si>
     <t xml:space="preserve"> =HV1+M2</t>
   </si>
   <si>
-    <t xml:space="preserve">_15A1.DI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.1</t>
+    <t xml:space="preserve">"O_10_1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O_11_1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"DB_FB_Std".FB2</t>
   </si>
   <si>
     <t xml:space="preserve">FB3</t>
   </si>
   <si>
-    <t xml:space="preserve">Förderband 3</t>
+    <t xml:space="preserve">Foerderband 3</t>
   </si>
   <si>
     <t xml:space="preserve"> =HV1+M3</t>
   </si>
   <si>
-    <t xml:space="preserve">_15A1.DI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.2</t>
+    <t xml:space="preserve">"O_10_2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O_11_2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"DB_FB_Std".FB3</t>
   </si>
   <si>
     <t xml:space="preserve">FB4</t>
   </si>
   <si>
-    <t xml:space="preserve">Förderband 4 Steigförderband</t>
+    <t xml:space="preserve">Foerderband 4</t>
   </si>
   <si>
     <t xml:space="preserve"> =HV1+M4</t>
   </si>
   <si>
-    <t xml:space="preserve">_15A1.DI4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_15A1.DI10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Förderband 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =HV1+M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A11.10</t>
+    <t xml:space="preserve">"O_10_3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"O_11_3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"DB_FB_Std".FB4</t>
   </si>
   <si>
     <t xml:space="preserve">Name</t>
@@ -380,10 +224,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,12 +257,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -461,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +310,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,10 +339,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,11 +351,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -536,381 +380,136 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -929,7 +528,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -942,13 +541,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,10 +555,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,10 +566,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -991,13 +590,13 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -1005,35 +604,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +653,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -1068,24 +667,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +705,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1120,68 +719,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +801,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1216,68 +815,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +897,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1312,24 +911,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
